--- a/Trossulus_edulis_distrudution_in_Kandalaksha_English/R_calc_dustred_2020/data/myt_full_2024.xlsx
+++ b/Trossulus_edulis_distrudution_in_Kandalaksha_English/R_calc_dustred_2020/data/myt_full_2024.xlsx
@@ -10,6 +10,9 @@
     <sheet name="Samples" sheetId="1" r:id="rId1"/>
     <sheet name="Sampling area assesment" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Samples!$A$1:$AN$571</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -2443,7 +2446,7 @@
     <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2460,14 +2463,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
@@ -2948,13 +2943,16 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2963,122 +2961,119 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3095,8 +3090,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -3633,8 +3629,8 @@
   <sheetPr/>
   <dimension ref="A1:AN571"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -3781,7 +3777,7 @@
       <c r="A2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C2" s="7">
@@ -3903,7 +3899,7 @@
       <c r="A3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C3" s="7">
@@ -4025,7 +4021,7 @@
       <c r="A4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C4" s="7">
@@ -4147,7 +4143,7 @@
       <c r="A5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="7">
@@ -4269,7 +4265,7 @@
       <c r="A6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C6" s="7">
@@ -4391,7 +4387,7 @@
       <c r="A7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="7">
@@ -4513,7 +4509,7 @@
       <c r="A8" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C8" s="7">
@@ -4534,11 +4530,11 @@
       <c r="H8" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I8" s="7">
-        <v>26</v>
-      </c>
-      <c r="J8" s="7">
-        <v>154</v>
+      <c r="I8" s="8">
+        <v>28</v>
+      </c>
+      <c r="J8" s="8">
+        <v>172</v>
       </c>
       <c r="K8" s="7">
         <v>16</v>
@@ -4635,7 +4631,7 @@
       <c r="A9" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C9" s="7">
@@ -4656,10 +4652,10 @@
       <c r="H9" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="8">
         <v>2</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="8">
         <v>71</v>
       </c>
       <c r="K9" s="7">
@@ -4757,7 +4753,7 @@
       <c r="A10" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C10" s="7">
@@ -4778,11 +4774,11 @@
       <c r="H10" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="7">
-        <v>37</v>
-      </c>
-      <c r="J10" s="7">
-        <v>124</v>
+      <c r="I10" s="8">
+        <v>43</v>
+      </c>
+      <c r="J10" s="8">
+        <v>138</v>
       </c>
       <c r="K10" s="7">
         <v>16</v>
@@ -4879,7 +4875,7 @@
       <c r="A11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C11" s="7">
@@ -4900,10 +4896,10 @@
       <c r="H11" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="8">
         <v>0</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="8">
         <v>30</v>
       </c>
       <c r="K11" s="7">
@@ -5001,7 +4997,7 @@
       <c r="A12" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C12" s="7">
@@ -5022,11 +5018,11 @@
       <c r="H12" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I12" s="7">
-        <v>53</v>
-      </c>
-      <c r="J12" s="7">
-        <v>149</v>
+      <c r="I12" s="8">
+        <v>45</v>
+      </c>
+      <c r="J12" s="8">
+        <v>131</v>
       </c>
       <c r="K12" s="7">
         <v>16</v>
@@ -5123,7 +5119,7 @@
       <c r="A13" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C13" s="7">
@@ -5144,10 +5140,10 @@
       <c r="H13" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="8">
         <v>2</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="8">
         <v>30</v>
       </c>
       <c r="K13" s="7">
@@ -5245,7 +5241,7 @@
       <c r="A14" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C14" s="7">
@@ -5367,7 +5363,7 @@
       <c r="A15" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C15" s="7">
@@ -5489,7 +5485,7 @@
       <c r="A16" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="7">
@@ -5611,7 +5607,7 @@
       <c r="A17" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="7">
@@ -5733,7 +5729,7 @@
       <c r="A18" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C18" s="7">
@@ -5855,7 +5851,7 @@
       <c r="A19" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="7">
@@ -5977,7 +5973,7 @@
       <c r="A20" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C20" s="7">
@@ -6099,7 +6095,7 @@
       <c r="A21" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C21" s="7">
@@ -6221,7 +6217,7 @@
       <c r="A22" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C22" s="7">
@@ -6343,7 +6339,7 @@
       <c r="A23" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C23" s="7">
@@ -6465,7 +6461,7 @@
       <c r="A24" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="7">
@@ -6587,7 +6583,7 @@
       <c r="A25" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C25" s="7">
@@ -6709,7 +6705,7 @@
       <c r="A26" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C26" s="7">
@@ -6831,7 +6827,7 @@
       <c r="A27" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C27" s="7">
@@ -6953,7 +6949,7 @@
       <c r="A28" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C28" s="7">
@@ -7075,7 +7071,7 @@
       <c r="A29" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="7">
@@ -7197,7 +7193,7 @@
       <c r="A30" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C30" s="7">
@@ -7319,7 +7315,7 @@
       <c r="A31" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C31" s="7">
@@ -7441,7 +7437,7 @@
       <c r="A32" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C32" s="7">
@@ -7563,7 +7559,7 @@
       <c r="A33" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C33" s="7">
@@ -7685,7 +7681,7 @@
       <c r="A34" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C34" s="7">
@@ -7807,7 +7803,7 @@
       <c r="A35" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C35" s="7">
@@ -7929,7 +7925,7 @@
       <c r="A36" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C36" s="7">
@@ -8051,7 +8047,7 @@
       <c r="A37" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C37" s="7">
@@ -8173,7 +8169,7 @@
       <c r="A38" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C38" s="7">
@@ -8295,7 +8291,7 @@
       <c r="A39" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C39" s="7">
@@ -8417,7 +8413,7 @@
       <c r="A40" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C40" s="7">
@@ -8539,7 +8535,7 @@
       <c r="A41" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C41" s="7">
@@ -8661,7 +8657,7 @@
       <c r="A42" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C42" s="7">
@@ -8783,7 +8779,7 @@
       <c r="A43" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C43" s="7">
@@ -8905,7 +8901,7 @@
       <c r="A44" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C44" s="7">
@@ -9027,7 +9023,7 @@
       <c r="A45" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C45" s="7">
@@ -9149,7 +9145,7 @@
       <c r="A46" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C46" s="7">
@@ -9271,7 +9267,7 @@
       <c r="A47" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C47" s="7">
@@ -9393,7 +9389,7 @@
       <c r="A48" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C48" s="7">
@@ -9515,7 +9511,7 @@
       <c r="A49" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C49" s="7">
@@ -9637,7 +9633,7 @@
       <c r="A50" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C50" s="7">
@@ -9759,7 +9755,7 @@
       <c r="A51" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C51" s="7">
@@ -9881,7 +9877,7 @@
       <c r="A52" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C52" s="7">
@@ -10003,7 +9999,7 @@
       <c r="A53" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C53" s="7">
@@ -10125,7 +10121,7 @@
       <c r="A54" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C54" s="7">
@@ -10247,7 +10243,7 @@
       <c r="A55" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C55" s="7">
@@ -10369,7 +10365,7 @@
       <c r="A56" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C56" s="7">
@@ -10491,7 +10487,7 @@
       <c r="A57" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C57" s="7">
@@ -10613,7 +10609,7 @@
       <c r="A58" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C58" s="7">
@@ -10735,7 +10731,7 @@
       <c r="A59" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C59" s="7">
@@ -10857,7 +10853,7 @@
       <c r="A60" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C60" s="7">
@@ -10979,7 +10975,7 @@
       <c r="A61" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C61" s="7">
@@ -11101,7 +11097,7 @@
       <c r="A62" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C62" s="7">
@@ -11223,7 +11219,7 @@
       <c r="A63" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C63" s="7">
@@ -11345,7 +11341,7 @@
       <c r="A64" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C64" s="7">
@@ -11467,7 +11463,7 @@
       <c r="A65" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C65" s="7">
@@ -11589,7 +11585,7 @@
       <c r="A66" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C66" s="7">
@@ -11711,7 +11707,7 @@
       <c r="A67" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C67" s="7">
@@ -11833,7 +11829,7 @@
       <c r="A68" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C68" s="7">
@@ -11955,7 +11951,7 @@
       <c r="A69" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C69" s="7">
@@ -12077,7 +12073,7 @@
       <c r="A70" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C70" s="7">
@@ -12199,7 +12195,7 @@
       <c r="A71" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C71" s="7">
@@ -12321,7 +12317,7 @@
       <c r="A72" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C72" s="7">
@@ -12443,7 +12439,7 @@
       <c r="A73" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C73" s="7">
@@ -12565,7 +12561,7 @@
       <c r="A74" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C74" s="7">
@@ -12687,7 +12683,7 @@
       <c r="A75" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C75" s="7">
@@ -12809,7 +12805,7 @@
       <c r="A76" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C76" s="7">
@@ -12931,7 +12927,7 @@
       <c r="A77" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C77" s="7">
@@ -13053,7 +13049,7 @@
       <c r="A78" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C78" s="7">
@@ -13175,7 +13171,7 @@
       <c r="A79" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C79" s="7">
@@ -13297,7 +13293,7 @@
       <c r="A80" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C80" s="7">
@@ -13419,7 +13415,7 @@
       <c r="A81" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C81" s="7">
@@ -13541,7 +13537,7 @@
       <c r="A82" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C82" s="7">
@@ -13663,7 +13659,7 @@
       <c r="A83" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C83" s="7">
@@ -13785,7 +13781,7 @@
       <c r="A84" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C84" s="7">
@@ -13907,7 +13903,7 @@
       <c r="A85" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C85" s="7">
@@ -14029,7 +14025,7 @@
       <c r="A86" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C86" s="7">
@@ -14151,7 +14147,7 @@
       <c r="A87" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C87" s="7">
@@ -14273,7 +14269,7 @@
       <c r="A88" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C88" s="7">
@@ -14395,7 +14391,7 @@
       <c r="A89" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C89" s="7">
@@ -14517,7 +14513,7 @@
       <c r="A90" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C90" s="7">
@@ -14639,7 +14635,7 @@
       <c r="A91" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C91" s="7">
@@ -14761,7 +14757,7 @@
       <c r="A92" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C92" s="7">
@@ -14883,7 +14879,7 @@
       <c r="A93" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B93" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C93" s="7">
@@ -15005,7 +15001,7 @@
       <c r="A94" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B94" s="8" t="s">
+      <c r="B94" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C94" s="7">
@@ -15127,7 +15123,7 @@
       <c r="A95" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="B95" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C95" s="7">
@@ -15249,7 +15245,7 @@
       <c r="A96" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="B96" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C96" s="7">
@@ -15371,7 +15367,7 @@
       <c r="A97" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="B97" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C97" s="7">
@@ -15493,7 +15489,7 @@
       <c r="A98" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C98" s="7">
@@ -15615,7 +15611,7 @@
       <c r="A99" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C99" s="7">
@@ -15737,7 +15733,7 @@
       <c r="A100" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B100" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C100" s="7">
@@ -15859,7 +15855,7 @@
       <c r="A101" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C101" s="7">
@@ -15981,7 +15977,7 @@
       <c r="A102" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C102" s="7">
@@ -16103,7 +16099,7 @@
       <c r="A103" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B103" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C103" s="7">
@@ -16225,7 +16221,7 @@
       <c r="A104" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="B104" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C104" s="7">
@@ -16347,7 +16343,7 @@
       <c r="A105" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="B105" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C105" s="7">
@@ -16469,7 +16465,7 @@
       <c r="A106" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B106" s="8" t="s">
+      <c r="B106" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C106" s="7">
@@ -16591,7 +16587,7 @@
       <c r="A107" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B107" s="8" t="s">
+      <c r="B107" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C107" s="7">
@@ -16713,7 +16709,7 @@
       <c r="A108" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B108" s="8" t="s">
+      <c r="B108" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C108" s="7">
@@ -16835,7 +16831,7 @@
       <c r="A109" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="B109" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C109" s="7">
@@ -16957,7 +16953,7 @@
       <c r="A110" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B110" s="8" t="s">
+      <c r="B110" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C110" s="7">
@@ -17079,7 +17075,7 @@
       <c r="A111" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="B111" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C111" s="7">
@@ -17201,7 +17197,7 @@
       <c r="A112" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B112" s="8" t="s">
+      <c r="B112" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C112" s="7">
@@ -17323,7 +17319,7 @@
       <c r="A113" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B113" s="8" t="s">
+      <c r="B113" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C113" s="7">
@@ -17445,7 +17441,7 @@
       <c r="A114" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B114" s="8" t="s">
+      <c r="B114" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C114" s="7">
@@ -17567,7 +17563,7 @@
       <c r="A115" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B115" s="8" t="s">
+      <c r="B115" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C115" s="7">
@@ -17689,7 +17685,7 @@
       <c r="A116" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B116" s="8" t="s">
+      <c r="B116" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C116" s="7">
@@ -17811,7 +17807,7 @@
       <c r="A117" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B117" s="8" t="s">
+      <c r="B117" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C117" s="7">
@@ -17933,7 +17929,7 @@
       <c r="A118" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B118" s="8" t="s">
+      <c r="B118" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C118" s="7">
@@ -18055,7 +18051,7 @@
       <c r="A119" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B119" s="8" t="s">
+      <c r="B119" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C119" s="7">
@@ -18177,7 +18173,7 @@
       <c r="A120" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B120" s="8" t="s">
+      <c r="B120" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C120" s="7">
@@ -18299,7 +18295,7 @@
       <c r="A121" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B121" s="8" t="s">
+      <c r="B121" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C121" s="7">
@@ -18421,7 +18417,7 @@
       <c r="A122" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B122" s="8" t="s">
+      <c r="B122" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C122" s="7">
@@ -18543,7 +18539,7 @@
       <c r="A123" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B123" s="8" t="s">
+      <c r="B123" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C123" s="7">
@@ -18665,7 +18661,7 @@
       <c r="A124" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B124" s="8" t="s">
+      <c r="B124" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C124" s="7">
@@ -18787,7 +18783,7 @@
       <c r="A125" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B125" s="8" t="s">
+      <c r="B125" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C125" s="7">
@@ -18909,7 +18905,7 @@
       <c r="A126" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B126" s="8" t="s">
+      <c r="B126" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C126" s="7">
@@ -19031,7 +19027,7 @@
       <c r="A127" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B127" s="8" t="s">
+      <c r="B127" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C127" s="7">
@@ -19153,7 +19149,7 @@
       <c r="A128" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B128" s="8" t="s">
+      <c r="B128" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C128" s="7">
@@ -19275,7 +19271,7 @@
       <c r="A129" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B129" s="8" t="s">
+      <c r="B129" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C129" s="7">
@@ -19397,7 +19393,7 @@
       <c r="A130" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B130" s="8" t="s">
+      <c r="B130" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C130" s="7">
@@ -19519,7 +19515,7 @@
       <c r="A131" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B131" s="8" t="s">
+      <c r="B131" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C131" s="7">
@@ -19641,7 +19637,7 @@
       <c r="A132" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B132" s="8" t="s">
+      <c r="B132" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C132" s="7">
@@ -19763,7 +19759,7 @@
       <c r="A133" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B133" s="8" t="s">
+      <c r="B133" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C133" s="7">
@@ -19885,7 +19881,7 @@
       <c r="A134" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="B134" s="8" t="s">
+      <c r="B134" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C134" s="7">
@@ -20007,7 +20003,7 @@
       <c r="A135" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="B135" s="8" t="s">
+      <c r="B135" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C135" s="7">
@@ -20129,7 +20125,7 @@
       <c r="A136" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="B136" s="8" t="s">
+      <c r="B136" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C136" s="7">
@@ -20251,7 +20247,7 @@
       <c r="A137" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="B137" s="8" t="s">
+      <c r="B137" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C137" s="7">
@@ -20373,7 +20369,7 @@
       <c r="A138" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="B138" s="8" t="s">
+      <c r="B138" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C138" s="7">
@@ -20495,7 +20491,7 @@
       <c r="A139" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="B139" s="8" t="s">
+      <c r="B139" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C139" s="7">
@@ -20617,7 +20613,7 @@
       <c r="A140" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="B140" s="8" t="s">
+      <c r="B140" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C140" s="7">
@@ -20739,7 +20735,7 @@
       <c r="A141" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="B141" s="8" t="s">
+      <c r="B141" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C141" s="7">
@@ -20861,7 +20857,7 @@
       <c r="A142" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="B142" s="8" t="s">
+      <c r="B142" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C142" s="7">
@@ -20983,7 +20979,7 @@
       <c r="A143" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="B143" s="8" t="s">
+      <c r="B143" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C143" s="7">
@@ -21105,7 +21101,7 @@
       <c r="A144" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="B144" s="8" t="s">
+      <c r="B144" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C144" s="7">
@@ -21227,7 +21223,7 @@
       <c r="A145" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="B145" s="8" t="s">
+      <c r="B145" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C145" s="7">
@@ -21349,7 +21345,7 @@
       <c r="A146" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="B146" s="8" t="s">
+      <c r="B146" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C146" s="7">
@@ -21471,7 +21467,7 @@
       <c r="A147" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="B147" s="8" t="s">
+      <c r="B147" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C147" s="7">
@@ -21593,7 +21589,7 @@
       <c r="A148" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="B148" s="8" t="s">
+      <c r="B148" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C148" s="7">
@@ -21715,7 +21711,7 @@
       <c r="A149" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="B149" s="8" t="s">
+      <c r="B149" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C149" s="7">
@@ -21837,7 +21833,7 @@
       <c r="A150" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="B150" s="8" t="s">
+      <c r="B150" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C150" s="7">
@@ -21959,7 +21955,7 @@
       <c r="A151" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="B151" s="8" t="s">
+      <c r="B151" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C151" s="7">
@@ -22081,7 +22077,7 @@
       <c r="A152" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="B152" s="8" t="s">
+      <c r="B152" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C152" s="7">
@@ -22203,7 +22199,7 @@
       <c r="A153" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="B153" s="8" t="s">
+      <c r="B153" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C153" s="7">
@@ -22325,7 +22321,7 @@
       <c r="A154" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="B154" s="8" t="s">
+      <c r="B154" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C154" s="7">
@@ -22447,7 +22443,7 @@
       <c r="A155" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="B155" s="8" t="s">
+      <c r="B155" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C155" s="7">
@@ -22569,7 +22565,7 @@
       <c r="A156" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="B156" s="8" t="s">
+      <c r="B156" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C156" s="7">
@@ -22691,7 +22687,7 @@
       <c r="A157" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="B157" s="8" t="s">
+      <c r="B157" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C157" s="7">
@@ -22813,7 +22809,7 @@
       <c r="A158" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="B158" s="8" t="s">
+      <c r="B158" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C158" s="7">
@@ -22935,7 +22931,7 @@
       <c r="A159" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="B159" s="8" t="s">
+      <c r="B159" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C159" s="7">
@@ -23057,7 +23053,7 @@
       <c r="A160" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="B160" s="8" t="s">
+      <c r="B160" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C160" s="7">
@@ -23179,7 +23175,7 @@
       <c r="A161" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="B161" s="8" t="s">
+      <c r="B161" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C161" s="7">
@@ -23301,7 +23297,7 @@
       <c r="A162" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="B162" s="8" t="s">
+      <c r="B162" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C162" s="7">
@@ -23423,7 +23419,7 @@
       <c r="A163" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="B163" s="8" t="s">
+      <c r="B163" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C163" s="7">
@@ -23545,7 +23541,7 @@
       <c r="A164" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="B164" s="8" t="s">
+      <c r="B164" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C164" s="7">
@@ -23667,7 +23663,7 @@
       <c r="A165" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="B165" s="8" t="s">
+      <c r="B165" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C165" s="7">
@@ -23789,7 +23785,7 @@
       <c r="A166" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="B166" s="8" t="s">
+      <c r="B166" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C166" s="7">
@@ -23911,7 +23907,7 @@
       <c r="A167" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="B167" s="8" t="s">
+      <c r="B167" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C167" s="7">
@@ -24033,7 +24029,7 @@
       <c r="A168" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="B168" s="8" t="s">
+      <c r="B168" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C168" s="7">
@@ -24155,7 +24151,7 @@
       <c r="A169" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="B169" s="8" t="s">
+      <c r="B169" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C169" s="7">
@@ -24277,7 +24273,7 @@
       <c r="A170" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="B170" s="8" t="s">
+      <c r="B170" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C170" s="7">
@@ -24399,7 +24395,7 @@
       <c r="A171" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="B171" s="8" t="s">
+      <c r="B171" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C171" s="7">
@@ -24521,7 +24517,7 @@
       <c r="A172" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="B172" s="8" t="s">
+      <c r="B172" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C172" s="7">
@@ -24643,7 +24639,7 @@
       <c r="A173" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="B173" s="8" t="s">
+      <c r="B173" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C173" s="7">
@@ -24765,7 +24761,7 @@
       <c r="A174" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="B174" s="8" t="s">
+      <c r="B174" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C174" s="7">
@@ -24887,7 +24883,7 @@
       <c r="A175" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="B175" s="8" t="s">
+      <c r="B175" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C175" s="7">
@@ -25009,7 +25005,7 @@
       <c r="A176" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="B176" s="8" t="s">
+      <c r="B176" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C176" s="7">
@@ -25030,10 +25026,10 @@
       <c r="H176" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I176" s="7">
+      <c r="I176" s="8">
         <v>148</v>
       </c>
-      <c r="J176" s="7">
+      <c r="J176" s="8">
         <v>216</v>
       </c>
       <c r="K176" s="7">
@@ -25131,7 +25127,7 @@
       <c r="A177" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="B177" s="8" t="s">
+      <c r="B177" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C177" s="7">
@@ -25152,10 +25148,10 @@
       <c r="H177" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I177" s="7">
+      <c r="I177" s="8">
         <v>30</v>
       </c>
-      <c r="J177" s="7">
+      <c r="J177" s="8">
         <v>78</v>
       </c>
       <c r="K177" s="7">
@@ -25253,7 +25249,7 @@
       <c r="A178" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="B178" s="8" t="s">
+      <c r="B178" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C178" s="7">
@@ -25274,11 +25270,11 @@
       <c r="H178" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I178" s="7">
-        <v>160</v>
-      </c>
-      <c r="J178" s="7">
-        <v>205</v>
+      <c r="I178" s="8">
+        <v>161</v>
+      </c>
+      <c r="J178" s="8">
+        <v>204</v>
       </c>
       <c r="K178" s="7">
         <v>17</v>
@@ -25375,7 +25371,7 @@
       <c r="A179" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="B179" s="8" t="s">
+      <c r="B179" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C179" s="7">
@@ -25396,10 +25392,10 @@
       <c r="H179" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I179" s="7">
+      <c r="I179" s="8">
         <v>23</v>
       </c>
-      <c r="J179" s="7">
+      <c r="J179" s="8">
         <v>125</v>
       </c>
       <c r="K179" s="7">
@@ -25497,7 +25493,7 @@
       <c r="A180" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="B180" s="8" t="s">
+      <c r="B180" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C180" s="7">
@@ -25518,10 +25514,10 @@
       <c r="H180" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I180" s="7">
+      <c r="I180" s="8">
         <v>91</v>
       </c>
-      <c r="J180" s="7">
+      <c r="J180" s="8">
         <v>94</v>
       </c>
       <c r="K180" s="7">
@@ -25619,7 +25615,7 @@
       <c r="A181" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="B181" s="8" t="s">
+      <c r="B181" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C181" s="7">
@@ -25640,10 +25636,10 @@
       <c r="H181" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I181" s="7">
+      <c r="I181" s="8">
         <v>19</v>
       </c>
-      <c r="J181" s="7">
+      <c r="J181" s="8">
         <v>73</v>
       </c>
       <c r="K181" s="7">
@@ -25741,7 +25737,7 @@
       <c r="A182" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B182" s="8" t="s">
+      <c r="B182" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C182" s="7">
@@ -25863,7 +25859,7 @@
       <c r="A183" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B183" s="8" t="s">
+      <c r="B183" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C183" s="7">
@@ -25985,7 +25981,7 @@
       <c r="A184" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B184" s="8" t="s">
+      <c r="B184" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C184" s="7">
@@ -26107,7 +26103,7 @@
       <c r="A185" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B185" s="8" t="s">
+      <c r="B185" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C185" s="7">
@@ -26229,7 +26225,7 @@
       <c r="A186" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B186" s="8" t="s">
+      <c r="B186" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C186" s="7">
@@ -26351,7 +26347,7 @@
       <c r="A187" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B187" s="8" t="s">
+      <c r="B187" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C187" s="7">
@@ -26473,7 +26469,7 @@
       <c r="A188" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B188" s="8" t="s">
+      <c r="B188" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C188" s="7">
@@ -26595,7 +26591,7 @@
       <c r="A189" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B189" s="8" t="s">
+      <c r="B189" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C189" s="7">
@@ -26717,7 +26713,7 @@
       <c r="A190" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B190" s="8" t="s">
+      <c r="B190" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C190" s="7">
@@ -26839,7 +26835,7 @@
       <c r="A191" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B191" s="8" t="s">
+      <c r="B191" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C191" s="7">
@@ -26961,7 +26957,7 @@
       <c r="A192" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B192" s="8" t="s">
+      <c r="B192" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C192" s="7">
@@ -27083,7 +27079,7 @@
       <c r="A193" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B193" s="8" t="s">
+      <c r="B193" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C193" s="7">
@@ -27205,7 +27201,7 @@
       <c r="A194" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="B194" s="8" t="s">
+      <c r="B194" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C194" s="7">
@@ -27327,7 +27323,7 @@
       <c r="A195" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="B195" s="8" t="s">
+      <c r="B195" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C195" s="7">
@@ -27449,7 +27445,7 @@
       <c r="A196" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="B196" s="8" t="s">
+      <c r="B196" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C196" s="7">
@@ -27571,7 +27567,7 @@
       <c r="A197" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="B197" s="8" t="s">
+      <c r="B197" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C197" s="7">
@@ -27693,7 +27689,7 @@
       <c r="A198" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="B198" s="8" t="s">
+      <c r="B198" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C198" s="7">
@@ -27815,7 +27811,7 @@
       <c r="A199" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="B199" s="8" t="s">
+      <c r="B199" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C199" s="7">
@@ -27937,7 +27933,7 @@
       <c r="A200" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="B200" s="8" t="s">
+      <c r="B200" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C200" s="7">
@@ -27958,10 +27954,10 @@
       <c r="H200" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I200" s="7">
+      <c r="I200" s="8">
         <v>9</v>
       </c>
-      <c r="J200" s="7">
+      <c r="J200" s="8">
         <v>146</v>
       </c>
       <c r="K200" s="7">
@@ -28059,7 +28055,7 @@
       <c r="A201" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="B201" s="8" t="s">
+      <c r="B201" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C201" s="7">
@@ -28080,10 +28076,10 @@
       <c r="H201" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I201" s="7">
+      <c r="I201" s="8">
         <v>6</v>
       </c>
-      <c r="J201" s="7">
+      <c r="J201" s="8">
         <v>152</v>
       </c>
       <c r="K201" s="7">
@@ -28181,7 +28177,7 @@
       <c r="A202" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="B202" s="8" t="s">
+      <c r="B202" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C202" s="7">
@@ -28202,10 +28198,10 @@
       <c r="H202" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I202" s="7">
+      <c r="I202" s="8">
         <v>15</v>
       </c>
-      <c r="J202" s="7">
+      <c r="J202" s="8">
         <v>171</v>
       </c>
       <c r="K202" s="7">
@@ -28303,7 +28299,7 @@
       <c r="A203" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="B203" s="8" t="s">
+      <c r="B203" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C203" s="7">
@@ -28324,10 +28320,10 @@
       <c r="H203" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I203" s="7">
+      <c r="I203" s="8">
         <v>3</v>
       </c>
-      <c r="J203" s="7">
+      <c r="J203" s="8">
         <v>93</v>
       </c>
       <c r="K203" s="7">
@@ -28425,7 +28421,7 @@
       <c r="A204" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="B204" s="8" t="s">
+      <c r="B204" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C204" s="7">
@@ -28446,11 +28442,11 @@
       <c r="H204" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I204" s="7">
+      <c r="I204" s="8">
         <v>3</v>
       </c>
-      <c r="J204" s="7">
-        <v>111</v>
+      <c r="J204" s="8">
+        <v>115</v>
       </c>
       <c r="K204" s="7">
         <v>25</v>
@@ -28547,7 +28543,7 @@
       <c r="A205" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="B205" s="8" t="s">
+      <c r="B205" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C205" s="7">
@@ -28568,10 +28564,10 @@
       <c r="H205" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I205" s="7">
+      <c r="I205" s="8">
         <v>2</v>
       </c>
-      <c r="J205" s="7">
+      <c r="J205" s="8">
         <v>85</v>
       </c>
       <c r="K205" s="7">
@@ -28669,7 +28665,7 @@
       <c r="A206" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="B206" s="8" t="s">
+      <c r="B206" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C206" s="7">
@@ -28791,7 +28787,7 @@
       <c r="A207" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="B207" s="8" t="s">
+      <c r="B207" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C207" s="7">
@@ -28913,7 +28909,7 @@
       <c r="A208" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="B208" s="8" t="s">
+      <c r="B208" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C208" s="7">
@@ -29035,7 +29031,7 @@
       <c r="A209" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="B209" s="8" t="s">
+      <c r="B209" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C209" s="7">
@@ -29157,7 +29153,7 @@
       <c r="A210" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="B210" s="8" t="s">
+      <c r="B210" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C210" s="7">
@@ -29279,7 +29275,7 @@
       <c r="A211" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="B211" s="8" t="s">
+      <c r="B211" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C211" s="7">
@@ -29401,7 +29397,7 @@
       <c r="A212" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="B212" s="8" t="s">
+      <c r="B212" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C212" s="7">
@@ -29523,7 +29519,7 @@
       <c r="A213" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="B213" s="8" t="s">
+      <c r="B213" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C213" s="7">
@@ -29645,7 +29641,7 @@
       <c r="A214" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="B214" s="8" t="s">
+      <c r="B214" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C214" s="7">
@@ -29767,7 +29763,7 @@
       <c r="A215" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="B215" s="8" t="s">
+      <c r="B215" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C215" s="7">
@@ -29889,7 +29885,7 @@
       <c r="A216" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="B216" s="8" t="s">
+      <c r="B216" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C216" s="7">
@@ -30011,7 +30007,7 @@
       <c r="A217" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="B217" s="8" t="s">
+      <c r="B217" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C217" s="7">
@@ -30133,7 +30129,7 @@
       <c r="A218" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="B218" s="8" t="s">
+      <c r="B218" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C218" s="7">
@@ -30255,7 +30251,7 @@
       <c r="A219" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="B219" s="8" t="s">
+      <c r="B219" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C219" s="7">
@@ -30377,7 +30373,7 @@
       <c r="A220" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="B220" s="8" t="s">
+      <c r="B220" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C220" s="7">
@@ -30499,7 +30495,7 @@
       <c r="A221" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="B221" s="8" t="s">
+      <c r="B221" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C221" s="7">
@@ -30621,7 +30617,7 @@
       <c r="A222" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="B222" s="8" t="s">
+      <c r="B222" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C222" s="7">
@@ -30743,7 +30739,7 @@
       <c r="A223" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="B223" s="8" t="s">
+      <c r="B223" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C223" s="7">
@@ -30865,7 +30861,7 @@
       <c r="A224" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B224" s="8" t="s">
+      <c r="B224" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C224" s="7">
@@ -30987,7 +30983,7 @@
       <c r="A225" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B225" s="8" t="s">
+      <c r="B225" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C225" s="7">
@@ -31109,7 +31105,7 @@
       <c r="A226" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B226" s="8" t="s">
+      <c r="B226" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C226" s="7">
@@ -31231,7 +31227,7 @@
       <c r="A227" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B227" s="8" t="s">
+      <c r="B227" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C227" s="7">
@@ -31353,7 +31349,7 @@
       <c r="A228" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B228" s="8" t="s">
+      <c r="B228" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C228" s="7">
@@ -31475,7 +31471,7 @@
       <c r="A229" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B229" s="8" t="s">
+      <c r="B229" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C229" s="7">
@@ -31597,7 +31593,7 @@
       <c r="A230" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="B230" s="8" t="s">
+      <c r="B230" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C230" s="7">
@@ -31719,7 +31715,7 @@
       <c r="A231" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="B231" s="8" t="s">
+      <c r="B231" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C231" s="7">
@@ -31841,7 +31837,7 @@
       <c r="A232" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="B232" s="8" t="s">
+      <c r="B232" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C232" s="7">
@@ -31963,7 +31959,7 @@
       <c r="A233" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="B233" s="8" t="s">
+      <c r="B233" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C233" s="7">
@@ -32085,7 +32081,7 @@
       <c r="A234" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="B234" s="8" t="s">
+      <c r="B234" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C234" s="7">
@@ -32207,7 +32203,7 @@
       <c r="A235" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="B235" s="8" t="s">
+      <c r="B235" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C235" s="7">
@@ -32329,7 +32325,7 @@
       <c r="A236" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="B236" s="8" t="s">
+      <c r="B236" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C236" s="7">
@@ -32451,7 +32447,7 @@
       <c r="A237" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="B237" s="8" t="s">
+      <c r="B237" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C237" s="7">
@@ -32573,7 +32569,7 @@
       <c r="A238" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="B238" s="8" t="s">
+      <c r="B238" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C238" s="7">
@@ -32695,7 +32691,7 @@
       <c r="A239" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="B239" s="8" t="s">
+      <c r="B239" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C239" s="7">
@@ -32817,7 +32813,7 @@
       <c r="A240" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="B240" s="8" t="s">
+      <c r="B240" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C240" s="7">
@@ -32939,7 +32935,7 @@
       <c r="A241" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="B241" s="8" t="s">
+      <c r="B241" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C241" s="7">
@@ -33061,7 +33057,7 @@
       <c r="A242" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="B242" s="8" t="s">
+      <c r="B242" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C242" s="7">
@@ -33183,7 +33179,7 @@
       <c r="A243" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="B243" s="8" t="s">
+      <c r="B243" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C243" s="7">
@@ -33305,7 +33301,7 @@
       <c r="A244" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="B244" s="8" t="s">
+      <c r="B244" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C244" s="7">
@@ -33427,7 +33423,7 @@
       <c r="A245" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="B245" s="8" t="s">
+      <c r="B245" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C245" s="7">
@@ -33549,7 +33545,7 @@
       <c r="A246" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="B246" s="8" t="s">
+      <c r="B246" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C246" s="7">
@@ -33671,7 +33667,7 @@
       <c r="A247" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="B247" s="8" t="s">
+      <c r="B247" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C247" s="7">
@@ -33793,7 +33789,7 @@
       <c r="A248" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="B248" s="8" t="s">
+      <c r="B248" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C248" s="7">
@@ -33915,7 +33911,7 @@
       <c r="A249" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="B249" s="8" t="s">
+      <c r="B249" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C249" s="7">
@@ -34037,7 +34033,7 @@
       <c r="A250" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="B250" s="8" t="s">
+      <c r="B250" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C250" s="7">
@@ -34159,7 +34155,7 @@
       <c r="A251" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="B251" s="8" t="s">
+      <c r="B251" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C251" s="7">
@@ -34281,7 +34277,7 @@
       <c r="A252" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="B252" s="8" t="s">
+      <c r="B252" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C252" s="7">
@@ -34403,7 +34399,7 @@
       <c r="A253" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="B253" s="8" t="s">
+      <c r="B253" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C253" s="7">
@@ -34525,7 +34521,7 @@
       <c r="A254" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="B254" s="8" t="s">
+      <c r="B254" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C254" s="7">
@@ -34647,7 +34643,7 @@
       <c r="A255" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="B255" s="8" t="s">
+      <c r="B255" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C255" s="7">
@@ -34769,7 +34765,7 @@
       <c r="A256" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="B256" s="8" t="s">
+      <c r="B256" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C256" s="7">
@@ -34891,7 +34887,7 @@
       <c r="A257" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="B257" s="8" t="s">
+      <c r="B257" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C257" s="7">
@@ -35013,7 +35009,7 @@
       <c r="A258" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="B258" s="8" t="s">
+      <c r="B258" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C258" s="7">
@@ -35135,7 +35131,7 @@
       <c r="A259" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="B259" s="8" t="s">
+      <c r="B259" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C259" s="7">
@@ -35257,7 +35253,7 @@
       <c r="A260" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="B260" s="8" t="s">
+      <c r="B260" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C260" s="7">
@@ -35379,7 +35375,7 @@
       <c r="A261" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="B261" s="8" t="s">
+      <c r="B261" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C261" s="7">
@@ -35501,7 +35497,7 @@
       <c r="A262" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="B262" s="8" t="s">
+      <c r="B262" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C262" s="7">
@@ -35623,7 +35619,7 @@
       <c r="A263" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="B263" s="8" t="s">
+      <c r="B263" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C263" s="7">
@@ -35745,7 +35741,7 @@
       <c r="A264" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="B264" s="8" t="s">
+      <c r="B264" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C264" s="7">
@@ -35867,7 +35863,7 @@
       <c r="A265" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="B265" s="8" t="s">
+      <c r="B265" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C265" s="7">
@@ -35989,7 +35985,7 @@
       <c r="A266" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="B266" s="8" t="s">
+      <c r="B266" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C266" s="7">
@@ -36111,7 +36107,7 @@
       <c r="A267" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="B267" s="8" t="s">
+      <c r="B267" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C267" s="7">
@@ -36233,7 +36229,7 @@
       <c r="A268" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="B268" s="8" t="s">
+      <c r="B268" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C268" s="7">
@@ -36355,7 +36351,7 @@
       <c r="A269" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="B269" s="8" t="s">
+      <c r="B269" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C269" s="7">
@@ -36477,7 +36473,7 @@
       <c r="A270" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="B270" s="8" t="s">
+      <c r="B270" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C270" s="7">
@@ -36599,7 +36595,7 @@
       <c r="A271" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="B271" s="8" t="s">
+      <c r="B271" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C271" s="7">
@@ -36721,7 +36717,7 @@
       <c r="A272" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="B272" s="8" t="s">
+      <c r="B272" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C272" s="7">
@@ -36843,7 +36839,7 @@
       <c r="A273" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="B273" s="8" t="s">
+      <c r="B273" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C273" s="7">
@@ -36965,7 +36961,7 @@
       <c r="A274" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="B274" s="8" t="s">
+      <c r="B274" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C274" s="7">
@@ -37087,7 +37083,7 @@
       <c r="A275" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="B275" s="8" t="s">
+      <c r="B275" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C275" s="7">
@@ -37209,7 +37205,7 @@
       <c r="A276" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="B276" s="8" t="s">
+      <c r="B276" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C276" s="7">
@@ -37331,7 +37327,7 @@
       <c r="A277" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="B277" s="8" t="s">
+      <c r="B277" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C277" s="7">
@@ -37453,7 +37449,7 @@
       <c r="A278" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="B278" s="8" t="s">
+      <c r="B278" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C278" s="7">
@@ -37575,7 +37571,7 @@
       <c r="A279" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="B279" s="8" t="s">
+      <c r="B279" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C279" s="7">
@@ -37697,7 +37693,7 @@
       <c r="A280" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="B280" s="8" t="s">
+      <c r="B280" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C280" s="7">
@@ -37819,7 +37815,7 @@
       <c r="A281" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="B281" s="8" t="s">
+      <c r="B281" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C281" s="7">
@@ -37941,7 +37937,7 @@
       <c r="A282" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="B282" s="8" t="s">
+      <c r="B282" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C282" s="7">
@@ -38063,7 +38059,7 @@
       <c r="A283" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="B283" s="8" t="s">
+      <c r="B283" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C283" s="7">
@@ -38185,7 +38181,7 @@
       <c r="A284" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="B284" s="8" t="s">
+      <c r="B284" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C284" s="7">
@@ -38307,7 +38303,7 @@
       <c r="A285" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="B285" s="8" t="s">
+      <c r="B285" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C285" s="7">
@@ -38429,7 +38425,7 @@
       <c r="A286" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="B286" s="8" t="s">
+      <c r="B286" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C286" s="7">
@@ -38551,7 +38547,7 @@
       <c r="A287" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="B287" s="8" t="s">
+      <c r="B287" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C287" s="7">
@@ -38673,7 +38669,7 @@
       <c r="A288" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="B288" s="8" t="s">
+      <c r="B288" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C288" s="7">
@@ -38795,7 +38791,7 @@
       <c r="A289" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="B289" s="8" t="s">
+      <c r="B289" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C289" s="7">
@@ -38917,7 +38913,7 @@
       <c r="A290" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="B290" s="8" t="s">
+      <c r="B290" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C290" s="7">
@@ -39039,7 +39035,7 @@
       <c r="A291" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="B291" s="8" t="s">
+      <c r="B291" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C291" s="7">
@@ -39161,7 +39157,7 @@
       <c r="A292" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="B292" s="8" t="s">
+      <c r="B292" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C292" s="7">
@@ -39283,7 +39279,7 @@
       <c r="A293" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="B293" s="8" t="s">
+      <c r="B293" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C293" s="7">
@@ -39405,7 +39401,7 @@
       <c r="A294" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="B294" s="8" t="s">
+      <c r="B294" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C294" s="7">
@@ -39527,7 +39523,7 @@
       <c r="A295" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="B295" s="8" t="s">
+      <c r="B295" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C295" s="7">
@@ -39649,7 +39645,7 @@
       <c r="A296" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="B296" s="8" t="s">
+      <c r="B296" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C296" s="7">
@@ -39771,7 +39767,7 @@
       <c r="A297" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="B297" s="8" t="s">
+      <c r="B297" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C297" s="7">
@@ -39893,7 +39889,7 @@
       <c r="A298" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="B298" s="8" t="s">
+      <c r="B298" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C298" s="7">
@@ -40015,7 +40011,7 @@
       <c r="A299" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="B299" s="8" t="s">
+      <c r="B299" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C299" s="7">
@@ -40137,7 +40133,7 @@
       <c r="A300" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="B300" s="8" t="s">
+      <c r="B300" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C300" s="7">
@@ -40259,7 +40255,7 @@
       <c r="A301" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="B301" s="8" t="s">
+      <c r="B301" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C301" s="7">
@@ -40381,7 +40377,7 @@
       <c r="A302" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="B302" s="8" t="s">
+      <c r="B302" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C302" s="7">
@@ -40503,7 +40499,7 @@
       <c r="A303" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="B303" s="8" t="s">
+      <c r="B303" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C303" s="7">
@@ -40625,7 +40621,7 @@
       <c r="A304" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="B304" s="8" t="s">
+      <c r="B304" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C304" s="7">
@@ -40747,7 +40743,7 @@
       <c r="A305" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="B305" s="8" t="s">
+      <c r="B305" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C305" s="7">
@@ -40869,7 +40865,7 @@
       <c r="A306" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="B306" s="8" t="s">
+      <c r="B306" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C306" s="7">
@@ -40991,7 +40987,7 @@
       <c r="A307" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="B307" s="8" t="s">
+      <c r="B307" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C307" s="7">
@@ -41113,7 +41109,7 @@
       <c r="A308" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="B308" s="8" t="s">
+      <c r="B308" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C308" s="7">
@@ -41235,7 +41231,7 @@
       <c r="A309" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="B309" s="8" t="s">
+      <c r="B309" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C309" s="7">
@@ -41357,7 +41353,7 @@
       <c r="A310" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="B310" s="8" t="s">
+      <c r="B310" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C310" s="7">
@@ -41479,7 +41475,7 @@
       <c r="A311" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="B311" s="8" t="s">
+      <c r="B311" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C311" s="7">
@@ -41601,7 +41597,7 @@
       <c r="A312" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="B312" s="8" t="s">
+      <c r="B312" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C312" s="7">
@@ -41723,7 +41719,7 @@
       <c r="A313" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="B313" s="8" t="s">
+      <c r="B313" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C313" s="7">
@@ -41845,7 +41841,7 @@
       <c r="A314" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="B314" s="8" t="s">
+      <c r="B314" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C314" s="7">
@@ -41967,7 +41963,7 @@
       <c r="A315" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="B315" s="8" t="s">
+      <c r="B315" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C315" s="7">
@@ -42089,7 +42085,7 @@
       <c r="A316" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="B316" s="8" t="s">
+      <c r="B316" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C316" s="7">
@@ -42211,7 +42207,7 @@
       <c r="A317" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="B317" s="8" t="s">
+      <c r="B317" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C317" s="7">
@@ -42333,7 +42329,7 @@
       <c r="A318" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="B318" s="8" t="s">
+      <c r="B318" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C318" s="7">
@@ -42455,7 +42451,7 @@
       <c r="A319" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="B319" s="8" t="s">
+      <c r="B319" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C319" s="7">
@@ -42577,7 +42573,7 @@
       <c r="A320" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="B320" s="8" t="s">
+      <c r="B320" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C320" s="7">
@@ -42699,7 +42695,7 @@
       <c r="A321" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="B321" s="8" t="s">
+      <c r="B321" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C321" s="7">
@@ -42821,7 +42817,7 @@
       <c r="A322" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="B322" s="8" t="s">
+      <c r="B322" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C322" s="7">
@@ -42943,7 +42939,7 @@
       <c r="A323" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="B323" s="8" t="s">
+      <c r="B323" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C323" s="7">
@@ -43065,7 +43061,7 @@
       <c r="A324" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="B324" s="8" t="s">
+      <c r="B324" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C324" s="7">
@@ -43187,7 +43183,7 @@
       <c r="A325" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="B325" s="8" t="s">
+      <c r="B325" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C325" s="7">
@@ -43309,7 +43305,7 @@
       <c r="A326" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="B326" s="8" t="s">
+      <c r="B326" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C326" s="7">
@@ -43431,7 +43427,7 @@
       <c r="A327" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="B327" s="8" t="s">
+      <c r="B327" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C327" s="7">
@@ -43553,7 +43549,7 @@
       <c r="A328" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="B328" s="8" t="s">
+      <c r="B328" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C328" s="7">
@@ -43675,7 +43671,7 @@
       <c r="A329" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="B329" s="8" t="s">
+      <c r="B329" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C329" s="7">
@@ -43797,7 +43793,7 @@
       <c r="A330" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="B330" s="8" t="s">
+      <c r="B330" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C330" s="7">
@@ -43919,7 +43915,7 @@
       <c r="A331" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="B331" s="8" t="s">
+      <c r="B331" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C331" s="7">
@@ -44041,7 +44037,7 @@
       <c r="A332" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="B332" s="8" t="s">
+      <c r="B332" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C332" s="7">
@@ -44163,7 +44159,7 @@
       <c r="A333" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="B333" s="8" t="s">
+      <c r="B333" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C333" s="7">
@@ -44285,7 +44281,7 @@
       <c r="A334" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="B334" s="8" t="s">
+      <c r="B334" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C334" s="7">
@@ -44407,7 +44403,7 @@
       <c r="A335" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="B335" s="8" t="s">
+      <c r="B335" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C335" s="7">
@@ -44529,7 +44525,7 @@
       <c r="A336" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="B336" s="8" t="s">
+      <c r="B336" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C336" s="7">
@@ -44651,7 +44647,7 @@
       <c r="A337" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="B337" s="8" t="s">
+      <c r="B337" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C337" s="7">
@@ -44773,7 +44769,7 @@
       <c r="A338" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="B338" s="8" t="s">
+      <c r="B338" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C338" s="7">
@@ -44895,7 +44891,7 @@
       <c r="A339" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="B339" s="8" t="s">
+      <c r="B339" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C339" s="7">
@@ -45017,7 +45013,7 @@
       <c r="A340" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="B340" s="8" t="s">
+      <c r="B340" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C340" s="7">
@@ -45139,7 +45135,7 @@
       <c r="A341" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="B341" s="8" t="s">
+      <c r="B341" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C341" s="7">
@@ -45261,7 +45257,7 @@
       <c r="A342" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="B342" s="8" t="s">
+      <c r="B342" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C342" s="7">
@@ -45383,7 +45379,7 @@
       <c r="A343" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="B343" s="8" t="s">
+      <c r="B343" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C343" s="7">
@@ -45505,7 +45501,7 @@
       <c r="A344" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="B344" s="8" t="s">
+      <c r="B344" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C344" s="7">
@@ -45627,7 +45623,7 @@
       <c r="A345" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="B345" s="8" t="s">
+      <c r="B345" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C345" s="7">
@@ -45749,7 +45745,7 @@
       <c r="A346" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="B346" s="8" t="s">
+      <c r="B346" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C346" s="7">
@@ -45871,7 +45867,7 @@
       <c r="A347" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="B347" s="8" t="s">
+      <c r="B347" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C347" s="7">
@@ -45993,7 +45989,7 @@
       <c r="A348" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="B348" s="8" t="s">
+      <c r="B348" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C348" s="7">
@@ -46115,7 +46111,7 @@
       <c r="A349" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="B349" s="8" t="s">
+      <c r="B349" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C349" s="7">
@@ -46237,7 +46233,7 @@
       <c r="A350" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="B350" s="8" t="s">
+      <c r="B350" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C350" s="7">
@@ -46359,7 +46355,7 @@
       <c r="A351" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="B351" s="8" t="s">
+      <c r="B351" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C351" s="7">
@@ -46481,7 +46477,7 @@
       <c r="A352" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="B352" s="8" t="s">
+      <c r="B352" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C352" s="7">
@@ -46603,7 +46599,7 @@
       <c r="A353" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="B353" s="8" t="s">
+      <c r="B353" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C353" s="7">
@@ -46725,7 +46721,7 @@
       <c r="A354" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="B354" s="8" t="s">
+      <c r="B354" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C354" s="7">
@@ -46847,7 +46843,7 @@
       <c r="A355" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="B355" s="8" t="s">
+      <c r="B355" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C355" s="7">
@@ -46969,7 +46965,7 @@
       <c r="A356" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="B356" s="8" t="s">
+      <c r="B356" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C356" s="7">
@@ -47091,7 +47087,7 @@
       <c r="A357" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="B357" s="8" t="s">
+      <c r="B357" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C357" s="7">
@@ -47213,7 +47209,7 @@
       <c r="A358" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="B358" s="8" t="s">
+      <c r="B358" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C358" s="7">
@@ -47335,7 +47331,7 @@
       <c r="A359" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="B359" s="8" t="s">
+      <c r="B359" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C359" s="7">
@@ -47457,7 +47453,7 @@
       <c r="A360" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="B360" s="8" t="s">
+      <c r="B360" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C360" s="7">
@@ -47579,7 +47575,7 @@
       <c r="A361" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="B361" s="8" t="s">
+      <c r="B361" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C361" s="7">
@@ -47701,7 +47697,7 @@
       <c r="A362" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="B362" s="8" t="s">
+      <c r="B362" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C362" s="7">
@@ -47823,7 +47819,7 @@
       <c r="A363" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="B363" s="8" t="s">
+      <c r="B363" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C363" s="7">
@@ -47945,7 +47941,7 @@
       <c r="A364" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="B364" s="8" t="s">
+      <c r="B364" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C364" s="7">
@@ -48067,7 +48063,7 @@
       <c r="A365" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="B365" s="8" t="s">
+      <c r="B365" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C365" s="7">
@@ -48189,7 +48185,7 @@
       <c r="A366" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="B366" s="8" t="s">
+      <c r="B366" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C366" s="7">
@@ -48311,7 +48307,7 @@
       <c r="A367" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="B367" s="8" t="s">
+      <c r="B367" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C367" s="7">
@@ -48433,7 +48429,7 @@
       <c r="A368" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="B368" s="8" t="s">
+      <c r="B368" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C368" s="7">
@@ -48555,7 +48551,7 @@
       <c r="A369" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="B369" s="8" t="s">
+      <c r="B369" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C369" s="7">
@@ -48677,7 +48673,7 @@
       <c r="A370" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="B370" s="8" t="s">
+      <c r="B370" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C370" s="7">
@@ -48799,7 +48795,7 @@
       <c r="A371" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="B371" s="8" t="s">
+      <c r="B371" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C371" s="7">
@@ -48921,7 +48917,7 @@
       <c r="A372" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="B372" s="8" t="s">
+      <c r="B372" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C372" s="7">
@@ -49043,7 +49039,7 @@
       <c r="A373" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="B373" s="8" t="s">
+      <c r="B373" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C373" s="7">
@@ -49165,7 +49161,7 @@
       <c r="A374" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="B374" s="8" t="s">
+      <c r="B374" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C374" s="7">
@@ -49186,11 +49182,11 @@
       <c r="H374" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I374" s="7">
-        <v>46</v>
-      </c>
-      <c r="J374" s="7">
-        <v>70</v>
+      <c r="I374" s="9">
+        <v>43</v>
+      </c>
+      <c r="J374" s="9">
+        <v>67</v>
       </c>
       <c r="K374" s="7">
         <v>18</v>
@@ -49287,7 +49283,7 @@
       <c r="A375" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="B375" s="8" t="s">
+      <c r="B375" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C375" s="7">
@@ -49308,10 +49304,10 @@
       <c r="H375" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I375" s="7">
+      <c r="I375" s="9">
         <v>3</v>
       </c>
-      <c r="J375" s="7">
+      <c r="J375" s="9">
         <v>14</v>
       </c>
       <c r="K375" s="7">
@@ -49409,7 +49405,7 @@
       <c r="A376" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="B376" s="8" t="s">
+      <c r="B376" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C376" s="7">
@@ -49430,11 +49426,11 @@
       <c r="H376" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I376" s="7">
-        <v>79</v>
-      </c>
-      <c r="J376" s="7">
-        <v>88</v>
+      <c r="I376" s="9">
+        <v>97</v>
+      </c>
+      <c r="J376" s="9">
+        <v>89</v>
       </c>
       <c r="K376" s="7">
         <v>18</v>
@@ -49531,7 +49527,7 @@
       <c r="A377" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="B377" s="8" t="s">
+      <c r="B377" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C377" s="7">
@@ -49552,10 +49548,10 @@
       <c r="H377" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I377" s="7">
+      <c r="I377" s="9">
         <v>2</v>
       </c>
-      <c r="J377" s="7">
+      <c r="J377" s="9">
         <v>12</v>
       </c>
       <c r="K377" s="7">
@@ -49653,7 +49649,7 @@
       <c r="A378" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="B378" s="8" t="s">
+      <c r="B378" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C378" s="7">
@@ -49674,11 +49670,11 @@
       <c r="H378" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I378" s="7">
-        <v>69</v>
-      </c>
-      <c r="J378" s="7">
-        <v>120</v>
+      <c r="I378" s="9">
+        <v>57</v>
+      </c>
+      <c r="J378" s="9">
+        <v>114</v>
       </c>
       <c r="K378" s="7">
         <v>18</v>
@@ -49775,7 +49771,7 @@
       <c r="A379" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="B379" s="8" t="s">
+      <c r="B379" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C379" s="7">
@@ -49796,10 +49792,10 @@
       <c r="H379" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I379" s="7">
+      <c r="I379" s="9">
         <v>6</v>
       </c>
-      <c r="J379" s="7">
+      <c r="J379" s="9">
         <v>16</v>
       </c>
       <c r="K379" s="7">
@@ -49897,7 +49893,7 @@
       <c r="A380" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="B380" s="8" t="s">
+      <c r="B380" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C380" s="7">
@@ -50019,7 +50015,7 @@
       <c r="A381" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="B381" s="8" t="s">
+      <c r="B381" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C381" s="7">
@@ -50141,7 +50137,7 @@
       <c r="A382" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="B382" s="8" t="s">
+      <c r="B382" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C382" s="7">
@@ -50263,7 +50259,7 @@
       <c r="A383" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="B383" s="8" t="s">
+      <c r="B383" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C383" s="7">
@@ -50385,7 +50381,7 @@
       <c r="A384" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="B384" s="8" t="s">
+      <c r="B384" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C384" s="7">
@@ -50507,7 +50503,7 @@
       <c r="A385" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="B385" s="8" t="s">
+      <c r="B385" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C385" s="7">
@@ -50629,7 +50625,7 @@
       <c r="A386" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="B386" s="8" t="s">
+      <c r="B386" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C386" s="7">
@@ -50751,7 +50747,7 @@
       <c r="A387" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="B387" s="8" t="s">
+      <c r="B387" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C387" s="7">
@@ -50873,7 +50869,7 @@
       <c r="A388" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="B388" s="8" t="s">
+      <c r="B388" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C388" s="7">
@@ -50995,7 +50991,7 @@
       <c r="A389" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="B389" s="8" t="s">
+      <c r="B389" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C389" s="7">
@@ -51117,7 +51113,7 @@
       <c r="A390" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="B390" s="8" t="s">
+      <c r="B390" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C390" s="7">
@@ -51239,7 +51235,7 @@
       <c r="A391" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="B391" s="8" t="s">
+      <c r="B391" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C391" s="7">
@@ -51361,7 +51357,7 @@
       <c r="A392" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="B392" s="8" t="s">
+      <c r="B392" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C392" s="7">
@@ -51483,7 +51479,7 @@
       <c r="A393" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="B393" s="8" t="s">
+      <c r="B393" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C393" s="7">
@@ -51605,7 +51601,7 @@
       <c r="A394" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="B394" s="8" t="s">
+      <c r="B394" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C394" s="7">
@@ -51727,7 +51723,7 @@
       <c r="A395" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="B395" s="8" t="s">
+      <c r="B395" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C395" s="7">
@@ -51849,7 +51845,7 @@
       <c r="A396" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="B396" s="8" t="s">
+      <c r="B396" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C396" s="7">
@@ -51971,7 +51967,7 @@
       <c r="A397" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="B397" s="8" t="s">
+      <c r="B397" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C397" s="7">
@@ -52093,7 +52089,7 @@
       <c r="A398" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="B398" s="8" t="s">
+      <c r="B398" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C398" s="7">
@@ -52215,7 +52211,7 @@
       <c r="A399" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="B399" s="8" t="s">
+      <c r="B399" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C399" s="7">
@@ -52337,7 +52333,7 @@
       <c r="A400" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="B400" s="8" t="s">
+      <c r="B400" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C400" s="7">
@@ -52459,7 +52455,7 @@
       <c r="A401" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="B401" s="8" t="s">
+      <c r="B401" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C401" s="7">
@@ -52581,7 +52577,7 @@
       <c r="A402" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="B402" s="8" t="s">
+      <c r="B402" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C402" s="7">
@@ -52703,7 +52699,7 @@
       <c r="A403" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="B403" s="8" t="s">
+      <c r="B403" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C403" s="7">
@@ -52825,7 +52821,7 @@
       <c r="A404" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="B404" s="8" t="s">
+      <c r="B404" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C404" s="7">
@@ -52947,7 +52943,7 @@
       <c r="A405" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="B405" s="8" t="s">
+      <c r="B405" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C405" s="7">
@@ -53069,7 +53065,7 @@
       <c r="A406" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="B406" s="8" t="s">
+      <c r="B406" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C406" s="7">
@@ -53191,7 +53187,7 @@
       <c r="A407" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="B407" s="8" t="s">
+      <c r="B407" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C407" s="7">
@@ -53313,7 +53309,7 @@
       <c r="A408" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="B408" s="8" t="s">
+      <c r="B408" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C408" s="7">
@@ -53435,7 +53431,7 @@
       <c r="A409" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="B409" s="8" t="s">
+      <c r="B409" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C409" s="7">
@@ -53557,7 +53553,7 @@
       <c r="A410" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="B410" s="8" t="s">
+      <c r="B410" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C410" s="7">
@@ -53679,7 +53675,7 @@
       <c r="A411" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="B411" s="8" t="s">
+      <c r="B411" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C411" s="7">
@@ -53801,7 +53797,7 @@
       <c r="A412" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="B412" s="8" t="s">
+      <c r="B412" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C412" s="7">
@@ -53923,7 +53919,7 @@
       <c r="A413" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="B413" s="8" t="s">
+      <c r="B413" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C413" s="7">
@@ -54045,7 +54041,7 @@
       <c r="A414" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="B414" s="8" t="s">
+      <c r="B414" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C414" s="7">
@@ -54167,7 +54163,7 @@
       <c r="A415" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="B415" s="8" t="s">
+      <c r="B415" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C415" s="7">
@@ -54289,7 +54285,7 @@
       <c r="A416" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="B416" s="8" t="s">
+      <c r="B416" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C416" s="7">
@@ -54411,7 +54407,7 @@
       <c r="A417" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="B417" s="8" t="s">
+      <c r="B417" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C417" s="7">
@@ -54533,7 +54529,7 @@
       <c r="A418" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="B418" s="8" t="s">
+      <c r="B418" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C418" s="7">
@@ -54655,7 +54651,7 @@
       <c r="A419" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="B419" s="8" t="s">
+      <c r="B419" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C419" s="7">
@@ -54777,7 +54773,7 @@
       <c r="A420" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="B420" s="8" t="s">
+      <c r="B420" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C420" s="7">
@@ -54899,7 +54895,7 @@
       <c r="A421" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="B421" s="8" t="s">
+      <c r="B421" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C421" s="7">
@@ -55021,7 +55017,7 @@
       <c r="A422" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="B422" s="8" t="s">
+      <c r="B422" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C422" s="7">
@@ -55143,7 +55139,7 @@
       <c r="A423" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="B423" s="8" t="s">
+      <c r="B423" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C423" s="7">
@@ -55265,7 +55261,7 @@
       <c r="A424" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="B424" s="8" t="s">
+      <c r="B424" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C424" s="7">
@@ -55387,7 +55383,7 @@
       <c r="A425" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="B425" s="8" t="s">
+      <c r="B425" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C425" s="7">
@@ -55509,7 +55505,7 @@
       <c r="A426" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="B426" s="8" t="s">
+      <c r="B426" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C426" s="7">
@@ -55631,7 +55627,7 @@
       <c r="A427" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="B427" s="8" t="s">
+      <c r="B427" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C427" s="7">
@@ -55753,7 +55749,7 @@
       <c r="A428" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="B428" s="8" t="s">
+      <c r="B428" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C428" s="7">
@@ -55875,7 +55871,7 @@
       <c r="A429" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="B429" s="8" t="s">
+      <c r="B429" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C429" s="7">
@@ -55997,7 +55993,7 @@
       <c r="A430" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="B430" s="8" t="s">
+      <c r="B430" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C430" s="7">
@@ -56119,7 +56115,7 @@
       <c r="A431" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="B431" s="8" t="s">
+      <c r="B431" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C431" s="7">
@@ -56241,7 +56237,7 @@
       <c r="A432" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="B432" s="8" t="s">
+      <c r="B432" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C432" s="7">
@@ -56363,7 +56359,7 @@
       <c r="A433" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="B433" s="8" t="s">
+      <c r="B433" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C433" s="7">
@@ -56485,7 +56481,7 @@
       <c r="A434" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="B434" s="8" t="s">
+      <c r="B434" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C434" s="7">
@@ -56607,7 +56603,7 @@
       <c r="A435" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="B435" s="8" t="s">
+      <c r="B435" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C435" s="7">
@@ -56729,7 +56725,7 @@
       <c r="A436" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="B436" s="8" t="s">
+      <c r="B436" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C436" s="7">
@@ -56851,7 +56847,7 @@
       <c r="A437" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="B437" s="8" t="s">
+      <c r="B437" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C437" s="7">
@@ -56973,7 +56969,7 @@
       <c r="A438" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="B438" s="8" t="s">
+      <c r="B438" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C438" s="7">
@@ -57095,7 +57091,7 @@
       <c r="A439" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="B439" s="8" t="s">
+      <c r="B439" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C439" s="7">
@@ -57217,7 +57213,7 @@
       <c r="A440" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="B440" s="8" t="s">
+      <c r="B440" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C440" s="7">
@@ -57339,7 +57335,7 @@
       <c r="A441" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="B441" s="8" t="s">
+      <c r="B441" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C441" s="7">
@@ -57461,7 +57457,7 @@
       <c r="A442" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="B442" s="8" t="s">
+      <c r="B442" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C442" s="7">
@@ -57583,7 +57579,7 @@
       <c r="A443" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="B443" s="8" t="s">
+      <c r="B443" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C443" s="7">
@@ -57705,7 +57701,7 @@
       <c r="A444" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="B444" s="8" t="s">
+      <c r="B444" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C444" s="7">
@@ -57827,7 +57823,7 @@
       <c r="A445" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="B445" s="8" t="s">
+      <c r="B445" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C445" s="7">
@@ -57949,7 +57945,7 @@
       <c r="A446" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="B446" s="8" t="s">
+      <c r="B446" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C446" s="7">
@@ -58071,7 +58067,7 @@
       <c r="A447" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="B447" s="8" t="s">
+      <c r="B447" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C447" s="7">
@@ -58193,7 +58189,7 @@
       <c r="A448" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="B448" s="8" t="s">
+      <c r="B448" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C448" s="7">
@@ -58315,7 +58311,7 @@
       <c r="A449" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="B449" s="8" t="s">
+      <c r="B449" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C449" s="7">
@@ -58437,7 +58433,7 @@
       <c r="A450" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="B450" s="8" t="s">
+      <c r="B450" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C450" s="7">
@@ -58559,7 +58555,7 @@
       <c r="A451" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="B451" s="8" t="s">
+      <c r="B451" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C451" s="7">
@@ -58681,7 +58677,7 @@
       <c r="A452" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="B452" s="8" t="s">
+      <c r="B452" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C452" s="7">
@@ -58803,7 +58799,7 @@
       <c r="A453" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="B453" s="8" t="s">
+      <c r="B453" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C453" s="7">
@@ -58925,7 +58921,7 @@
       <c r="A454" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="B454" s="8" t="s">
+      <c r="B454" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C454" s="7">
@@ -59047,7 +59043,7 @@
       <c r="A455" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="B455" s="8" t="s">
+      <c r="B455" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C455" s="7">
@@ -59169,7 +59165,7 @@
       <c r="A456" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="B456" s="8" t="s">
+      <c r="B456" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C456" s="7">
@@ -59291,7 +59287,7 @@
       <c r="A457" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="B457" s="8" t="s">
+      <c r="B457" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C457" s="7">
@@ -59413,7 +59409,7 @@
       <c r="A458" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="B458" s="8" t="s">
+      <c r="B458" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C458" s="7">
@@ -59535,7 +59531,7 @@
       <c r="A459" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="B459" s="8" t="s">
+      <c r="B459" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C459" s="7">
@@ -59657,7 +59653,7 @@
       <c r="A460" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="B460" s="8" t="s">
+      <c r="B460" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C460" s="7">
@@ -59779,7 +59775,7 @@
       <c r="A461" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="B461" s="8" t="s">
+      <c r="B461" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C461" s="7">
@@ -59901,7 +59897,7 @@
       <c r="A462" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="B462" s="8" t="s">
+      <c r="B462" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C462" s="7">
@@ -60023,7 +60019,7 @@
       <c r="A463" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="B463" s="8" t="s">
+      <c r="B463" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C463" s="7">
@@ -60145,7 +60141,7 @@
       <c r="A464" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="B464" s="8" t="s">
+      <c r="B464" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C464" s="7">
@@ -60267,7 +60263,7 @@
       <c r="A465" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="B465" s="8" t="s">
+      <c r="B465" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C465" s="7">
@@ -60389,7 +60385,7 @@
       <c r="A466" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="B466" s="8" t="s">
+      <c r="B466" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C466" s="7">
@@ -60511,7 +60507,7 @@
       <c r="A467" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="B467" s="8" t="s">
+      <c r="B467" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C467" s="7">
@@ -60633,7 +60629,7 @@
       <c r="A468" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="B468" s="8" t="s">
+      <c r="B468" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C468" s="7">
@@ -60755,7 +60751,7 @@
       <c r="A469" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="B469" s="8" t="s">
+      <c r="B469" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C469" s="7">
@@ -60877,7 +60873,7 @@
       <c r="A470" s="6" t="s">
         <v>609</v>
       </c>
-      <c r="B470" s="8" t="s">
+      <c r="B470" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C470" s="7">
@@ -60999,7 +60995,7 @@
       <c r="A471" s="6" t="s">
         <v>609</v>
       </c>
-      <c r="B471" s="8" t="s">
+      <c r="B471" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C471" s="7">
@@ -61121,7 +61117,7 @@
       <c r="A472" s="6" t="s">
         <v>609</v>
       </c>
-      <c r="B472" s="8" t="s">
+      <c r="B472" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C472" s="7">
@@ -61243,7 +61239,7 @@
       <c r="A473" s="6" t="s">
         <v>609</v>
       </c>
-      <c r="B473" s="8" t="s">
+      <c r="B473" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C473" s="7">
@@ -61365,7 +61361,7 @@
       <c r="A474" s="6" t="s">
         <v>609</v>
       </c>
-      <c r="B474" s="8" t="s">
+      <c r="B474" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C474" s="7">
@@ -61487,7 +61483,7 @@
       <c r="A475" s="6" t="s">
         <v>609</v>
       </c>
-      <c r="B475" s="8" t="s">
+      <c r="B475" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C475" s="7">
@@ -61609,7 +61605,7 @@
       <c r="A476" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="B476" s="8" t="s">
+      <c r="B476" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C476" s="7">
@@ -61731,7 +61727,7 @@
       <c r="A477" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="B477" s="8" t="s">
+      <c r="B477" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C477" s="7">
@@ -61853,7 +61849,7 @@
       <c r="A478" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="B478" s="8" t="s">
+      <c r="B478" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C478" s="7">
@@ -61975,7 +61971,7 @@
       <c r="A479" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="B479" s="8" t="s">
+      <c r="B479" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C479" s="7">
@@ -62097,7 +62093,7 @@
       <c r="A480" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="B480" s="8" t="s">
+      <c r="B480" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C480" s="7">
@@ -62219,7 +62215,7 @@
       <c r="A481" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="B481" s="8" t="s">
+      <c r="B481" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C481" s="7">
@@ -62341,7 +62337,7 @@
       <c r="A482" s="6" t="s">
         <v>623</v>
       </c>
-      <c r="B482" s="8" t="s">
+      <c r="B482" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C482" s="7">
@@ -62463,7 +62459,7 @@
       <c r="A483" s="6" t="s">
         <v>623</v>
       </c>
-      <c r="B483" s="8" t="s">
+      <c r="B483" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C483" s="7">
@@ -62585,7 +62581,7 @@
       <c r="A484" s="6" t="s">
         <v>623</v>
       </c>
-      <c r="B484" s="8" t="s">
+      <c r="B484" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C484" s="7">
@@ -62707,7 +62703,7 @@
       <c r="A485" s="6" t="s">
         <v>623</v>
       </c>
-      <c r="B485" s="8" t="s">
+      <c r="B485" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C485" s="7">
@@ -62829,7 +62825,7 @@
       <c r="A486" s="6" t="s">
         <v>623</v>
       </c>
-      <c r="B486" s="8" t="s">
+      <c r="B486" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C486" s="7">
@@ -62951,7 +62947,7 @@
       <c r="A487" s="6" t="s">
         <v>623</v>
       </c>
-      <c r="B487" s="8" t="s">
+      <c r="B487" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C487" s="7">
@@ -63073,7 +63069,7 @@
       <c r="A488" s="6" t="s">
         <v>630</v>
       </c>
-      <c r="B488" s="8" t="s">
+      <c r="B488" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C488" s="7">
@@ -63195,7 +63191,7 @@
       <c r="A489" s="6" t="s">
         <v>630</v>
       </c>
-      <c r="B489" s="8" t="s">
+      <c r="B489" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C489" s="7">
@@ -63317,7 +63313,7 @@
       <c r="A490" s="6" t="s">
         <v>630</v>
       </c>
-      <c r="B490" s="8" t="s">
+      <c r="B490" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C490" s="7">
@@ -63439,7 +63435,7 @@
       <c r="A491" s="6" t="s">
         <v>630</v>
       </c>
-      <c r="B491" s="8" t="s">
+      <c r="B491" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C491" s="7">
@@ -63561,7 +63557,7 @@
       <c r="A492" s="6" t="s">
         <v>630</v>
       </c>
-      <c r="B492" s="8" t="s">
+      <c r="B492" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C492" s="7">
@@ -63683,7 +63679,7 @@
       <c r="A493" s="6" t="s">
         <v>630</v>
       </c>
-      <c r="B493" s="8" t="s">
+      <c r="B493" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C493" s="7">
@@ -63805,7 +63801,7 @@
       <c r="A494" s="6" t="s">
         <v>637</v>
       </c>
-      <c r="B494" s="8" t="s">
+      <c r="B494" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C494" s="7">
@@ -63927,7 +63923,7 @@
       <c r="A495" s="6" t="s">
         <v>637</v>
       </c>
-      <c r="B495" s="8" t="s">
+      <c r="B495" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C495" s="7">
@@ -64049,7 +64045,7 @@
       <c r="A496" s="6" t="s">
         <v>637</v>
       </c>
-      <c r="B496" s="8" t="s">
+      <c r="B496" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C496" s="7">
@@ -64171,7 +64167,7 @@
       <c r="A497" s="6" t="s">
         <v>637</v>
       </c>
-      <c r="B497" s="8" t="s">
+      <c r="B497" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C497" s="7">
@@ -64293,7 +64289,7 @@
       <c r="A498" s="6" t="s">
         <v>637</v>
       </c>
-      <c r="B498" s="8" t="s">
+      <c r="B498" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C498" s="7">
@@ -64415,7 +64411,7 @@
       <c r="A499" s="6" t="s">
         <v>637</v>
       </c>
-      <c r="B499" s="8" t="s">
+      <c r="B499" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C499" s="7">
@@ -64537,7 +64533,7 @@
       <c r="A500" s="6" t="s">
         <v>639</v>
       </c>
-      <c r="B500" s="8" t="s">
+      <c r="B500" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C500" s="7">
@@ -64659,7 +64655,7 @@
       <c r="A501" s="6" t="s">
         <v>639</v>
       </c>
-      <c r="B501" s="8" t="s">
+      <c r="B501" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C501" s="7">
@@ -64781,7 +64777,7 @@
       <c r="A502" s="6" t="s">
         <v>639</v>
       </c>
-      <c r="B502" s="8" t="s">
+      <c r="B502" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C502" s="7">
@@ -64903,7 +64899,7 @@
       <c r="A503" s="6" t="s">
         <v>639</v>
       </c>
-      <c r="B503" s="8" t="s">
+      <c r="B503" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C503" s="7">
@@ -65025,7 +65021,7 @@
       <c r="A504" s="6" t="s">
         <v>639</v>
       </c>
-      <c r="B504" s="8" t="s">
+      <c r="B504" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C504" s="7">
@@ -65147,7 +65143,7 @@
       <c r="A505" s="6" t="s">
         <v>639</v>
       </c>
-      <c r="B505" s="8" t="s">
+      <c r="B505" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C505" s="7">
@@ -65269,7 +65265,7 @@
       <c r="A506" s="6" t="s">
         <v>650</v>
       </c>
-      <c r="B506" s="8" t="s">
+      <c r="B506" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C506" s="7">
@@ -65391,7 +65387,7 @@
       <c r="A507" s="6" t="s">
         <v>650</v>
       </c>
-      <c r="B507" s="8" t="s">
+      <c r="B507" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C507" s="7">
@@ -65513,7 +65509,7 @@
       <c r="A508" s="6" t="s">
         <v>650</v>
       </c>
-      <c r="B508" s="8" t="s">
+      <c r="B508" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C508" s="7">
@@ -65635,7 +65631,7 @@
       <c r="A509" s="6" t="s">
         <v>650</v>
       </c>
-      <c r="B509" s="8" t="s">
+      <c r="B509" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C509" s="7">
@@ -65757,7 +65753,7 @@
       <c r="A510" s="6" t="s">
         <v>650</v>
       </c>
-      <c r="B510" s="8" t="s">
+      <c r="B510" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C510" s="7">
@@ -65879,7 +65875,7 @@
       <c r="A511" s="6" t="s">
         <v>650</v>
       </c>
-      <c r="B511" s="8" t="s">
+      <c r="B511" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C511" s="7">
@@ -66001,7 +65997,7 @@
       <c r="A512" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="B512" s="8" t="s">
+      <c r="B512" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C512" s="7">
@@ -66123,7 +66119,7 @@
       <c r="A513" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="B513" s="8" t="s">
+      <c r="B513" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C513" s="7">
@@ -66245,7 +66241,7 @@
       <c r="A514" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="B514" s="8" t="s">
+      <c r="B514" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C514" s="7">
@@ -66367,7 +66363,7 @@
       <c r="A515" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="B515" s="8" t="s">
+      <c r="B515" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C515" s="7">
@@ -66489,7 +66485,7 @@
       <c r="A516" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="B516" s="8" t="s">
+      <c r="B516" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C516" s="7">
@@ -66611,7 +66607,7 @@
       <c r="A517" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="B517" s="8" t="s">
+      <c r="B517" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C517" s="7">
@@ -66733,7 +66729,7 @@
       <c r="A518" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="B518" s="8" t="s">
+      <c r="B518" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C518" s="7">
@@ -66855,7 +66851,7 @@
       <c r="A519" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="B519" s="8" t="s">
+      <c r="B519" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C519" s="7">
@@ -66977,7 +66973,7 @@
       <c r="A520" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="B520" s="8" t="s">
+      <c r="B520" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C520" s="7">
@@ -67099,7 +67095,7 @@
       <c r="A521" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="B521" s="8" t="s">
+      <c r="B521" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C521" s="7">
@@ -67221,7 +67217,7 @@
       <c r="A522" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="B522" s="8" t="s">
+      <c r="B522" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C522" s="7">
@@ -67343,7 +67339,7 @@
       <c r="A523" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="B523" s="8" t="s">
+      <c r="B523" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C523" s="7">
@@ -67465,7 +67461,7 @@
       <c r="A524" s="6" t="s">
         <v>671</v>
       </c>
-      <c r="B524" s="8" t="s">
+      <c r="B524" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C524" s="7">
@@ -67587,7 +67583,7 @@
       <c r="A525" s="6" t="s">
         <v>671</v>
       </c>
-      <c r="B525" s="8" t="s">
+      <c r="B525" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C525" s="7">
@@ -67709,7 +67705,7 @@
       <c r="A526" s="6" t="s">
         <v>671</v>
       </c>
-      <c r="B526" s="8" t="s">
+      <c r="B526" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C526" s="7">
@@ -67831,7 +67827,7 @@
       <c r="A527" s="6" t="s">
         <v>671</v>
       </c>
-      <c r="B527" s="8" t="s">
+      <c r="B527" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C527" s="7">
@@ -67953,7 +67949,7 @@
       <c r="A528" s="6" t="s">
         <v>671</v>
       </c>
-      <c r="B528" s="8" t="s">
+      <c r="B528" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C528" s="7">
@@ -68075,7 +68071,7 @@
       <c r="A529" s="6" t="s">
         <v>671</v>
       </c>
-      <c r="B529" s="8" t="s">
+      <c r="B529" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C529" s="7">
@@ -68197,7 +68193,7 @@
       <c r="A530" s="6" t="s">
         <v>678</v>
       </c>
-      <c r="B530" s="8" t="s">
+      <c r="B530" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C530" s="7">
@@ -68319,7 +68315,7 @@
       <c r="A531" s="6" t="s">
         <v>678</v>
       </c>
-      <c r="B531" s="8" t="s">
+      <c r="B531" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C531" s="7">
@@ -68441,7 +68437,7 @@
       <c r="A532" s="6" t="s">
         <v>678</v>
       </c>
-      <c r="B532" s="8" t="s">
+      <c r="B532" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C532" s="7">
@@ -68563,7 +68559,7 @@
       <c r="A533" s="6" t="s">
         <v>678</v>
       </c>
-      <c r="B533" s="8" t="s">
+      <c r="B533" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C533" s="7">
@@ -68685,7 +68681,7 @@
       <c r="A534" s="6" t="s">
         <v>678</v>
       </c>
-      <c r="B534" s="8" t="s">
+      <c r="B534" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C534" s="7">
@@ -68807,7 +68803,7 @@
       <c r="A535" s="6" t="s">
         <v>678</v>
       </c>
-      <c r="B535" s="8" t="s">
+      <c r="B535" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C535" s="7">
@@ -68929,7 +68925,7 @@
       <c r="A536" s="6" t="s">
         <v>679</v>
       </c>
-      <c r="B536" s="8" t="s">
+      <c r="B536" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C536" s="7">
@@ -69051,7 +69047,7 @@
       <c r="A537" s="6" t="s">
         <v>679</v>
       </c>
-      <c r="B537" s="8" t="s">
+      <c r="B537" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C537" s="7">
@@ -69173,7 +69169,7 @@
       <c r="A538" s="6" t="s">
         <v>679</v>
       </c>
-      <c r="B538" s="8" t="s">
+      <c r="B538" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C538" s="7">
@@ -69295,7 +69291,7 @@
       <c r="A539" s="6" t="s">
         <v>679</v>
       </c>
-      <c r="B539" s="8" t="s">
+      <c r="B539" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C539" s="7">
@@ -69417,7 +69413,7 @@
       <c r="A540" s="6" t="s">
         <v>679</v>
       </c>
-      <c r="B540" s="8" t="s">
+      <c r="B540" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C540" s="7">
@@ -69539,7 +69535,7 @@
       <c r="A541" s="6" t="s">
         <v>679</v>
       </c>
-      <c r="B541" s="8" t="s">
+      <c r="B541" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C541" s="7">
@@ -69661,7 +69657,7 @@
       <c r="A542" s="6" t="s">
         <v>680</v>
       </c>
-      <c r="B542" s="8" t="s">
+      <c r="B542" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C542" s="7">
@@ -69783,7 +69779,7 @@
       <c r="A543" s="6" t="s">
         <v>680</v>
       </c>
-      <c r="B543" s="8" t="s">
+      <c r="B543" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C543" s="7">
@@ -69905,7 +69901,7 @@
       <c r="A544" s="6" t="s">
         <v>680</v>
       </c>
-      <c r="B544" s="8" t="s">
+      <c r="B544" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C544" s="7">
@@ -70027,7 +70023,7 @@
       <c r="A545" s="6" t="s">
         <v>680</v>
       </c>
-      <c r="B545" s="8" t="s">
+      <c r="B545" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C545" s="7">
@@ -70149,7 +70145,7 @@
       <c r="A546" s="6" t="s">
         <v>680</v>
       </c>
-      <c r="B546" s="8" t="s">
+      <c r="B546" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C546" s="7">
@@ -70271,7 +70267,7 @@
       <c r="A547" s="6" t="s">
         <v>680</v>
       </c>
-      <c r="B547" s="8" t="s">
+      <c r="B547" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C547" s="7">
@@ -70393,7 +70389,7 @@
       <c r="A548" s="6" t="s">
         <v>696</v>
       </c>
-      <c r="B548" s="8" t="s">
+      <c r="B548" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C548" s="7">
@@ -70414,10 +70410,10 @@
       <c r="H548" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I548" s="7">
+      <c r="I548" s="8">
         <v>62</v>
       </c>
-      <c r="J548" s="7">
+      <c r="J548" s="8">
         <v>51</v>
       </c>
       <c r="K548" s="7">
@@ -70515,7 +70511,7 @@
       <c r="A549" s="6" t="s">
         <v>696</v>
       </c>
-      <c r="B549" s="8" t="s">
+      <c r="B549" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C549" s="7">
@@ -70536,10 +70532,10 @@
       <c r="H549" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I549" s="7">
+      <c r="I549" s="8">
         <v>43</v>
       </c>
-      <c r="J549" s="7">
+      <c r="J549" s="8">
         <v>83</v>
       </c>
       <c r="K549" s="7">
@@ -70637,7 +70633,7 @@
       <c r="A550" s="6" t="s">
         <v>696</v>
       </c>
-      <c r="B550" s="8" t="s">
+      <c r="B550" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C550" s="7">
@@ -70658,11 +70654,11 @@
       <c r="H550" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I550" s="7">
-        <v>102</v>
-      </c>
-      <c r="J550" s="7">
-        <v>116</v>
+      <c r="I550" s="8">
+        <v>106</v>
+      </c>
+      <c r="J550" s="8">
+        <v>112</v>
       </c>
       <c r="K550" s="7">
         <v>21</v>
@@ -70759,7 +70755,7 @@
       <c r="A551" s="6" t="s">
         <v>696</v>
       </c>
-      <c r="B551" s="8" t="s">
+      <c r="B551" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C551" s="7">
@@ -70780,10 +70776,10 @@
       <c r="H551" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I551" s="7">
+      <c r="I551" s="8">
         <v>23</v>
       </c>
-      <c r="J551" s="7">
+      <c r="J551" s="8">
         <v>79</v>
       </c>
       <c r="K551" s="7">
@@ -70881,7 +70877,7 @@
       <c r="A552" s="6" t="s">
         <v>696</v>
       </c>
-      <c r="B552" s="8" t="s">
+      <c r="B552" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C552" s="7">
@@ -70902,10 +70898,10 @@
       <c r="H552" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I552" s="7">
-        <v>59</v>
-      </c>
-      <c r="J552" s="7">
+      <c r="I552" s="8">
+        <v>59</v>
+      </c>
+      <c r="J552" s="8">
         <v>132</v>
       </c>
       <c r="K552" s="7">
@@ -71003,7 +70999,7 @@
       <c r="A553" s="6" t="s">
         <v>696</v>
       </c>
-      <c r="B553" s="8" t="s">
+      <c r="B553" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C553" s="7">
@@ -71024,10 +71020,10 @@
       <c r="H553" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I553" s="7">
+      <c r="I553" s="8">
         <v>30</v>
       </c>
-      <c r="J553" s="7">
+      <c r="J553" s="8">
         <v>68</v>
       </c>
       <c r="K553" s="7">
@@ -71125,7 +71121,7 @@
       <c r="A554" s="6" t="s">
         <v>703</v>
       </c>
-      <c r="B554" s="8" t="s">
+      <c r="B554" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C554" s="7">
@@ -71247,7 +71243,7 @@
       <c r="A555" s="6" t="s">
         <v>703</v>
       </c>
-      <c r="B555" s="8" t="s">
+      <c r="B555" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C555" s="7">
@@ -71369,7 +71365,7 @@
       <c r="A556" s="6" t="s">
         <v>703</v>
       </c>
-      <c r="B556" s="8" t="s">
+      <c r="B556" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C556" s="7">
@@ -71491,7 +71487,7 @@
       <c r="A557" s="6" t="s">
         <v>703</v>
       </c>
-      <c r="B557" s="8" t="s">
+      <c r="B557" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C557" s="7">
@@ -71613,7 +71609,7 @@
       <c r="A558" s="6" t="s">
         <v>703</v>
       </c>
-      <c r="B558" s="8" t="s">
+      <c r="B558" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C558" s="7">
@@ -71735,7 +71731,7 @@
       <c r="A559" s="6" t="s">
         <v>703</v>
       </c>
-      <c r="B559" s="8" t="s">
+      <c r="B559" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C559" s="7">
@@ -71857,7 +71853,7 @@
       <c r="A560" s="6" t="s">
         <v>710</v>
       </c>
-      <c r="B560" s="8" t="s">
+      <c r="B560" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C560" s="7">
@@ -71979,7 +71975,7 @@
       <c r="A561" s="6" t="s">
         <v>710</v>
       </c>
-      <c r="B561" s="8" t="s">
+      <c r="B561" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C561" s="7">
@@ -72101,7 +72097,7 @@
       <c r="A562" s="6" t="s">
         <v>710</v>
       </c>
-      <c r="B562" s="8" t="s">
+      <c r="B562" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C562" s="7">
@@ -72223,7 +72219,7 @@
       <c r="A563" s="6" t="s">
         <v>710</v>
       </c>
-      <c r="B563" s="8" t="s">
+      <c r="B563" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C563" s="7">
@@ -72345,7 +72341,7 @@
       <c r="A564" s="6" t="s">
         <v>710</v>
       </c>
-      <c r="B564" s="8" t="s">
+      <c r="B564" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C564" s="7">
@@ -72467,7 +72463,7 @@
       <c r="A565" s="6" t="s">
         <v>710</v>
       </c>
-      <c r="B565" s="8" t="s">
+      <c r="B565" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C565" s="7">
@@ -72589,7 +72585,7 @@
       <c r="A566" s="6" t="s">
         <v>717</v>
       </c>
-      <c r="B566" s="8" t="s">
+      <c r="B566" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C566" s="7">
@@ -72711,7 +72707,7 @@
       <c r="A567" s="6" t="s">
         <v>717</v>
       </c>
-      <c r="B567" s="8" t="s">
+      <c r="B567" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C567" s="7">
@@ -72833,7 +72829,7 @@
       <c r="A568" s="6" t="s">
         <v>717</v>
       </c>
-      <c r="B568" s="8" t="s">
+      <c r="B568" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C568" s="7">
@@ -72955,7 +72951,7 @@
       <c r="A569" s="6" t="s">
         <v>717</v>
       </c>
-      <c r="B569" s="8" t="s">
+      <c r="B569" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C569" s="7">
@@ -73077,7 +73073,7 @@
       <c r="A570" s="6" t="s">
         <v>717</v>
       </c>
-      <c r="B570" s="8" t="s">
+      <c r="B570" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C570" s="7">
@@ -73199,7 +73195,7 @@
       <c r="A571" s="6" t="s">
         <v>717</v>
       </c>
-      <c r="B571" s="8" t="s">
+      <c r="B571" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C571" s="7">
@@ -73318,6 +73314,9 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AN571">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -73328,8 +73327,8 @@
   <sheetPr/>
   <dimension ref="A1:G644"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A318" workbookViewId="0">
+      <selection activeCell="D321" sqref="D321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelCol="6"/>

--- a/Trossulus_edulis_distrudution_in_Kandalaksha_English/R_calc_dustred_2020/data/myt_full_2024.xlsx
+++ b/Trossulus_edulis_distrudution_in_Kandalaksha_English/R_calc_dustred_2020/data/myt_full_2024.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9144"/>
+    <workbookView windowWidth="22188" windowHeight="8735"/>
   </bookViews>
   <sheets>
     <sheet name="Samples" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Samples!$A$1:$AN$571</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2438,7 +2451,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
@@ -3629,8 +3642,8 @@
   <sheetPr/>
   <dimension ref="A1:AN571"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A391" workbookViewId="0">
+      <selection activeCell="A415" sqref="A415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -3642,11 +3655,15 @@
     <col min="12" max="13" width="10" style="6"/>
     <col min="14" max="14" width="10" style="7"/>
     <col min="15" max="15" width="10" style="6"/>
-    <col min="16" max="18" width="10" style="7"/>
+    <col min="16" max="17" width="10" style="7"/>
+    <col min="18" max="18" width="13.7777777777778" style="7" customWidth="1"/>
     <col min="19" max="20" width="10" style="6"/>
-    <col min="21" max="24" width="10" style="7"/>
+    <col min="21" max="23" width="10" style="7"/>
+    <col min="24" max="24" width="19.8888888888889" style="7" customWidth="1"/>
     <col min="25" max="27" width="10" style="6"/>
-    <col min="28" max="34" width="10" style="7"/>
+    <col min="28" max="29" width="10" style="7"/>
+    <col min="30" max="30" width="13.5555555555556" style="7" customWidth="1"/>
+    <col min="31" max="34" width="10" style="7"/>
     <col min="35" max="35" width="10" style="6"/>
     <col min="36" max="40" width="10" style="7"/>
   </cols>
@@ -73314,7 +73331,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN571">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AN571" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
